--- a/VISA_CommonUnit/bin/Release/CommandSets/Keithley  6517B.xlsx
+++ b/VISA_CommonUnit/bin/Release/CommandSets/Keithley  6517B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="仪器命令" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="110">
   <si>
     <t>命令内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>读取仪器当前值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*CLS;:DATA?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,215 +173,280 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>:SYSTem:PREset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:FUNCtion  "VOLTage:DC"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置直流电压测量量程为 0.1V \n 由于仪器直流电压最低量程为2V,最高量程为200V, 因此仪器显示量程为2V\n仪器将按照用户输入的最接近仪器支持的值设定量程 \n执行该命令前必须使用命令   *CLS;:FUNCtion  "VOLTage:DC"  将仪器设置为直流电压测量功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS; :CURRent:DC:RANGe:UPPer 1E-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置仪器直流电压测量量程为 20V,使用5V参考电压并开启参考电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置仪器功能为电阻测量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置直流电流测量量程为1E-12A \n 由于仪器直流电流最低量程为20pA,最高量程为20mA, 因此仪器显示量程为20p\n仪器将按照用户输入的最接近仪器支持的值设定量程 \n执行该命令前必须使用命令   *CLS;:FUNCtion  "CURRent:DC"  将仪器设置为直流电压测量功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS; :FUNCtion  "CURRent"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置当前功能为直流电压测量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置当前功能为直流电流测量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置仪器功能为静电计功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置电阻量程为1E12 Ohm;\n执行该命令前必须使用命令   *CLS;:FUNCtion  "RESistance"   将仪器设置为电阻测量功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS; :CHARge:RANGe:UPPer 1E-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:FUNCtion  "CHARge"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置静电计量程为2nC\n 仪器支持量程为 2nC--2uC\n执行该命令前必须使用命令   *CLS;:FUNCtion  "CHARge"  将仪器设置为静电计功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*IDN?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:SOURce:VOLTage  20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置电压源输出为20V,电压源电压可在-100.000V-100.000V间的步进为0.005的任意值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:VOLTage:DC::DIGits  6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置电压测量分辨率,可在3.5-6.5(三位半-六位半)之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有的命令可以参照6517A的说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:SYSTem:RNUMber:RESet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空读数计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取REL值\n参考6517A手册  3.22.12 Zero check and zero correct commands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:FORMat:ELEMents?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:SYSTem:ZCHeck OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭Zero-Check\n参考6517A手册  3.22.12 Zero check and zero correct commands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">询问仪器当前读回的数据会包含什么内容\n参考6517A手册 3.16 :FORMat subsystem </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">设置仪器读回的数据要包含什么内容\n参考6517A手册 3.16 :FORMat subsystem </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问仪器有什么错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:SYSTem:ERRor?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:VOLTage:DC:RANGe:UPPer 1E-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:SYSTem:ZCHeck ON;:SYSTem:ZCORrect:ACQuire;:SYSTem:ZCHeck OFF;:SYSTem:ZCORrect ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:FUNCtion  "RESistance"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:RESistance:MANual:VSOurce:OPERate ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:RESistance:VSControl  AUTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置电阻测量模式电压源输出为AUTO  /  MANual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS; :RESistance:RANGe:UPPer 1E12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS; :RESistance:RANGe:AUTO ON</t>
+  </si>
+  <si>
+    <t>开启电阻测量自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:SYSTem:ZCHeck ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启Zero-Check\n参考6517A手册  3.22.12 Zero check and zero correct commands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:FUNCtion  "RESistance";:SYSTem:ZCHeck ON;:RESistance:VSControl  AUTO; :RESistance:RANGe:AUTO ON;:RESistance:MANual:VSOurce:OPERate ON;:SYSTem:ZCHeck OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接好电路后一条指令执行自动量程电阻测量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sed "s@NOHM.*@  N  OHM@g"</t>
+  </si>
+  <si>
+    <t>电阻测量时格式化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:FORMat:ELEMents READing,CHANnel,RNUMber,UNITs,TSTamp,STATus,HUMidity,VSOurce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:DISPlay:WINDow1:TEXT:DATA?</t>
+  </si>
+  <si>
+    <t>*CLS;:DISPlay:ENABle   ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将字符串显示到显示窗口1,\n(上面那一行是窗口1 最多20个字符,\n下面那一行是窗口2,最多32个字符)\n参考6517A手册  Table 3-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:DISPlay:WINDow1:TEXT:STATe ON;:DISPlay:WINDow1:TEXT:DATA "Hello  6517B"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭自定义显示的内容，回到系统界面显示\n参考6517A手册  Table 3-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问窗口1的自定义显示内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:DISPlay:ENABle?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启/关闭整个屏幕\n参考 6517A 手册 Table 3-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问屏幕是否开启\n参考 6517A 手册 Table 3-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:DISPlay:WINDow1:TEXT:STATe ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启电压源输出 (OFF 为关闭)\n参考6517A手册 3-95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*CLS;:RESistance:MANual:VSOurce:OPERate?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>询问电压源输出状态\n参考6517A手册 3-95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取仪器当前值\n\n(重新执行一次完整功能设置后返回测量到的值\n比如测量电阻时每执行一次该命令,继电器会响一次\n说明有设置档位等动作,因此使用该命令可能得不到正确的测量值\n最好使用 DATA?命令,直接返回仪器显示的值,这样能得到真实的读数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>*CLS;:MEASure?</t>
-  </si>
-  <si>
-    <t>:SYSTem:PREset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:FUNCtion  "VOLTage:DC"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置直流电压测量量程为 0.1V \n 由于仪器直流电压最低量程为2V,最高量程为200V, 因此仪器显示量程为2V\n仪器将按照用户输入的最接近仪器支持的值设定量程 \n执行该命令前必须使用命令   *CLS;:FUNCtion  "VOLTage:DC"  将仪器设置为直流电压测量功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS; :CURRent:DC:RANGe:UPPer 1E-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置仪器直流电压测量量程为 20V,使用5V参考电压并开启参考电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置仪器功能为电阻测量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置直流电流测量量程为1E-12A \n 由于仪器直流电流最低量程为20pA,最高量程为20mA, 因此仪器显示量程为20p\n仪器将按照用户输入的最接近仪器支持的值设定量程 \n执行该命令前必须使用命令   *CLS;:FUNCtion  "CURRent:DC"  将仪器设置为直流电压测量功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS; :FUNCtion  "CURRent"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置当前功能为直流电压测量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置当前功能为直流电流测量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置仪器功能为静电计功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置电阻量程为1E12 Ohm;\n执行该命令前必须使用命令   *CLS;:FUNCtion  "RESistance"   将仪器设置为电阻测量功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS; :CHARge:RANGe:UPPer 1E-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:FUNCtion  "CHARge"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置静电计量程为2nC\n 仪器支持量程为 2nC--2uC\n执行该命令前必须使用命令   *CLS;:FUNCtion  "CHARge"  将仪器设置为静电计功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*IDN?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:SOURce:VOLTage  20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启电压源输出 (OFF 为关闭)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置电压源输出为20V,电压源电压可在-100.000V-100.000V间的步进为0.005的任意值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:VOLTage:DC::DIGits  6.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置电压测量分辨率,可在3.5-6.5(三位半-六位半)之间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有的命令可以参照6517A的说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:SYSTem:RNUMber:RESet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清空读数计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取REL值\n参考6517A手册  3.22.12 Zero check and zero correct commands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:FORMat:ELEMents?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:SYSTem:ZCHeck OFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭Zero-Check\n参考6517A手册  3.22.12 Zero check and zero correct commands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">询问仪器当前读回的数据会包含什么内容\n参考6517A手册 3.16 :FORMat subsystem </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">设置仪器读回的数据要包含什么内容\n参考6517A手册 3.16 :FORMat subsystem </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:FORMat:ELEMents READing,CHANnel,RNUMber,UNITs,TSTamp,STATus,HUMidity,VSOurce</t>
-  </si>
-  <si>
-    <t>询问仪器有什么错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:SYSTem:ERRor?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:VOLTage:DC:RANGe:UPPer 1E-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:SYSTem:ZCHeck ON;:SYSTem:ZCORrect:ACQuire;:SYSTem:ZCHeck OFF;:SYSTem:ZCORrect ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:FUNCtion  "RESistance"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:RESistance:MANual:VSOurce:OPERate ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:RESistance:VSControl  AUTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置电阻测量模式电压源输出为AUTO  /  MANual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS; :RESistance:RANGe:UPPer 1E12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS; :RESistance:RANGe:AUTO ON</t>
-  </si>
-  <si>
-    <t>开启电阻测量自动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:SYSTem:ZCHeck ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启Zero-Check\n参考6517A手册  3.22.12 Zero check and zero correct commands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*CLS;:FUNCtion  "RESistance";:SYSTem:ZCHeck ON;:RESistance:VSControl  AUTO; :RESistance:RANGe:AUTO ON;:RESistance:MANual:VSOurce:OPERate ON;:SYSTem:ZCHeck OFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接好电路后一条指令执行自动量程电阻测量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sed "s@NOHM.*@  N  OHM@g"</t>
-  </si>
-  <si>
-    <t>电阻测量时格式化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取仪器当前值(界面显示值,不会重新执行功能设置,只是单纯返回窗口显示的值) \n \n 最好使用此命令读取,具体说明参考   *CLS;:MEASure?   的说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,7 +801,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -783,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -803,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -815,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -843,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -863,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -875,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -883,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -895,15 +956,15 @@
         <v>2</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -915,7 +976,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -923,10 +984,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -935,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -943,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -955,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -963,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -975,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -983,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -995,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1003,19 +1064,19 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1023,19 +1084,19 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
         <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1043,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
@@ -1055,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1063,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
@@ -1075,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1083,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -1095,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1103,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -1115,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1123,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
@@ -1135,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1143,19 +1204,19 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1163,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
@@ -1175,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1183,19 +1244,19 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="K23" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1203,19 +1264,19 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1223,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
@@ -1235,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1243,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
@@ -1255,7 +1316,7 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1263,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
@@ -1275,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1283,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
@@ -1295,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1303,19 +1364,19 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1323,88 +1384,142 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
       <c r="E31" t="s">
         <v>2</v>
       </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
       <c r="I31" t="s">
         <v>2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
       <c r="E32" t="s">
         <v>2</v>
       </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
       <c r="I32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
       <c r="E33" t="s">
-        <v>2</v>
+        <v>96</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="K33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
       <c r="E34" t="s">
         <v>2</v>
       </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
       <c r="I34" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
       <c r="E35" t="s">
         <v>2</v>
       </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
       <c r="I35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
       <c r="E36" t="s">
         <v>2</v>
       </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
       <c r="I36" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1426,7 +1541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1437,7 +1552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1448,7 +1563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1459,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -1470,7 +1585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -1481,7 +1596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +1607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1503,7 +1618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1514,7 +1629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -1525,51 +1640,73 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1</v>
       </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
       <c r="I48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1738,7 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1862,13 +1999,13 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
